--- a/web/templates/yearlyhouraccounting.xlsx
+++ b/web/templates/yearlyhouraccounting.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$B$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$AV$41</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -103,7 +103,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -127,11 +127,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <name val="Times New Roman Cyr"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="16"/>
       <name val="Times New Roman Cyr"/>
       <charset val="204"/>
     </font>
@@ -284,58 +279,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -343,17 +305,51 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -720,45 +716,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Лист1">
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
+  <sheetPr codeName="Лист1"/>
   <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="81" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="6.85546875" style="1" customWidth="1"/>
-    <col min="3" max="7" width="14.7109375" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="14" width="6.7109375" style="1" customWidth="1"/>
+    <col min="15" max="19" width="9.140625" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="22"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="22"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="26" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="2"/>
@@ -766,10 +761,10 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="22"/>
-    </row>
-    <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="G3" s="11"/>
+    </row>
+    <row r="4" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
@@ -779,366 +774,366 @@
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-    </row>
-    <row r="6" spans="1:18" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+    </row>
+    <row r="6" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="23"/>
-    </row>
-    <row r="7" spans="1:18" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+      <c r="G6" s="12"/>
+    </row>
+    <row r="7" spans="1:18" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="27"/>
-    </row>
-    <row r="8" spans="1:18" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+      <c r="B7" s="28"/>
+    </row>
+    <row r="8" spans="1:18" ht="90" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="28"/>
+      <c r="B8" s="29"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:18" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+    <row r="9" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="9"/>
+      <c r="B9" s="18"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:18" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
+    <row r="10" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="19"/>
+      <c r="B10" s="20"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:18" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
+    <row r="11" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-    </row>
-    <row r="12" spans="1:18" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="10" t="s">
+      <c r="B11" s="20"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+    </row>
+    <row r="12" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-    </row>
-    <row r="13" spans="1:18" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="10" t="s">
+      <c r="B12" s="20"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+    </row>
+    <row r="13" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-    </row>
-    <row r="14" spans="1:18" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="10" t="s">
+      <c r="B13" s="20"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+    </row>
+    <row r="14" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-    </row>
-    <row r="15" spans="1:18" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="10" t="s">
+      <c r="B14" s="20"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+    </row>
+    <row r="15" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="19"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-    </row>
-    <row r="16" spans="1:18" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="B15" s="20"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+    </row>
+    <row r="16" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="19"/>
-      <c r="D16" s="11"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="13"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
-    </row>
-    <row r="17" spans="1:18" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
+      <c r="B16" s="20"/>
+      <c r="D16" s="6"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="8"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+    </row>
+    <row r="17" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="13"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
-    </row>
-    <row r="18" spans="1:18" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
+      <c r="B17" s="20"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="8"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+    </row>
+    <row r="18" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="6"/>
-    </row>
-    <row r="19" spans="1:18" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
+      <c r="B18" s="21"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+    </row>
+    <row r="19" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="19"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="6"/>
-    </row>
-    <row r="20" spans="1:18" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="16" t="s">
+      <c r="B19" s="20"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+    </row>
+    <row r="20" spans="1:18" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="21"/>
-      <c r="D20" s="14"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="6"/>
-    </row>
-    <row r="21" spans="1:18" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="17" t="s">
+      <c r="B20" s="23"/>
+      <c r="D20" s="9"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+    </row>
+    <row r="21" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="6"/>
-      <c r="R21" s="6"/>
-    </row>
-    <row r="22" spans="1:18" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="10" t="s">
+      <c r="B21" s="18"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+    </row>
+    <row r="22" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="19"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="6"/>
-      <c r="R22" s="6"/>
-    </row>
-    <row r="23" spans="1:18" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
+      <c r="B22" s="20"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+    </row>
+    <row r="23" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="6"/>
-    </row>
-    <row r="24" spans="1:18" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="10" t="s">
+      <c r="B23" s="20"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+    </row>
+    <row r="24" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="19"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="6"/>
-      <c r="R24" s="6"/>
-    </row>
-    <row r="25" spans="1:18" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="10" t="s">
+      <c r="B24" s="20"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+    </row>
+    <row r="25" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="19"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="6"/>
-      <c r="R25" s="6"/>
-    </row>
-    <row r="26" spans="1:18" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="10" t="s">
+      <c r="B25" s="20"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+    </row>
+    <row r="26" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="19"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="6"/>
-      <c r="R26" s="6"/>
-    </row>
-    <row r="27" spans="1:18" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="6"/>
-      <c r="P27" s="6"/>
-      <c r="Q27" s="6"/>
-      <c r="R27" s="6"/>
-    </row>
-    <row r="28" spans="1:18" ht="38.25" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="B26" s="20"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+    </row>
+    <row r="27" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+    </row>
+    <row r="28" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="30"/>
+    </row>
     <row r="29" spans="1:18" ht="38.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="30" spans="1:18" ht="38.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="31" spans="1:18" ht="38.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="E23:F23"/>
+  <mergeCells count="1">
     <mergeCell ref="B6:B8"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.25" right="0.25" top="1.2176724137931034" bottom="0.75" header="0.44252873563218392" footer="0.3"/>
-  <pageSetup paperSize="9" scale="88" orientation="portrait" horizontalDpi="240" verticalDpi="144" r:id="rId1"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="1.4173228346456694" bottom="0.74803149606299213" header="0.43307086614173229" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="240" verticalDpi="144" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;"Times New Roman,обычный"&amp;16Міністерство освіти і науки України
 Хмельницький політехнічний коледж

--- a/web/templates/yearlyhouraccounting.xlsx
+++ b/web/templates/yearlyhouraccounting.xlsx
@@ -339,6 +339,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -347,9 +350,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -719,8 +719,8 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -785,7 +785,7 @@
       <c r="A6" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="28" t="s">
         <v>4</v>
       </c>
       <c r="G6" s="12"/>
@@ -794,13 +794,13 @@
       <c r="A7" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="28"/>
+      <c r="B7" s="29"/>
     </row>
     <row r="8" spans="1:18" ht="90" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="29"/>
+      <c r="B8" s="30"/>
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1122,7 +1122,7 @@
       <c r="R27" s="5"/>
     </row>
     <row r="28" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="30"/>
+      <c r="A28" s="27"/>
     </row>
     <row r="29" spans="1:18" ht="38.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="30" spans="1:18" ht="38.25" customHeight="1" x14ac:dyDescent="0.2"/>
